--- a/golf_streamlit/data/hullinfo.xlsx
+++ b/golf_streamlit/data/hullinfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c624kh1\Documents\My Projects\min_git\golf_streamlit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c624kh1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C3FEE9-F1EF-4190-A1A9-86EB3F91C3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB7184-574A-4B85-A4A9-413B76BB01D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118:H119"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3085,7 +3085,7 @@
         <v>4</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D176">
         <v>5</v>
@@ -3099,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D177">
         <v>9</v>
@@ -3113,7 +3113,7 @@
         <v>6</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D178">
         <v>15</v>
@@ -3141,7 +3141,7 @@
         <v>8</v>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D180">
         <v>3</v>
@@ -3183,7 +3183,7 @@
         <v>11</v>
       </c>
       <c r="C183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -3211,7 +3211,7 @@
         <v>13</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D185">
         <v>12</v>
@@ -3239,7 +3239,7 @@
         <v>15</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D187">
         <v>16</v>
@@ -3267,7 +3267,7 @@
         <v>17</v>
       </c>
       <c r="C189">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D189">
         <v>14</v>
@@ -3281,7 +3281,7 @@
         <v>18</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D190">
         <v>18</v>
